--- a/G293-INNN_稚内北星学園大学/2018_ETロボコン_ガレッジニア部門_部品表-Aamako-Jato(INNN).xlsx
+++ b/G293-INNN_稚内北星学園大学/2018_ETロボコン_ガレッジニア部門_部品表-Aamako-Jato(INNN).xlsx
@@ -910,7 +910,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17885656-323C-4DBD-BEAD-7AB1C4125184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
